--- a/logs/2020-02-07/temp/03033.xlsx
+++ b/logs/2020-02-07/temp/03033.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="23">
   <si>
     <t>timestamp</t>
   </si>
@@ -43,39 +43,6 @@
     <t>vol</t>
   </si>
   <si>
-    <t>2020-01-06</t>
-  </si>
-  <si>
-    <t>2020-01-07</t>
-  </si>
-  <si>
-    <t>2020-01-08</t>
-  </si>
-  <si>
-    <t>2020-01-09</t>
-  </si>
-  <si>
-    <t>2020-01-10</t>
-  </si>
-  <si>
-    <t>2020-01-13</t>
-  </si>
-  <si>
-    <t>2020-01-14</t>
-  </si>
-  <si>
-    <t>2020-01-15</t>
-  </si>
-  <si>
-    <t>2020-01-16</t>
-  </si>
-  <si>
-    <t>2020-01-17</t>
-  </si>
-  <si>
-    <t>2020-01-20</t>
-  </si>
-  <si>
     <t>2020-01-21</t>
   </si>
   <si>
@@ -112,19 +79,7 @@
     <t>SGBHD</t>
   </si>
   <si>
-    <t>0.225</t>
-  </si>
-  <si>
-    <t>0.280</t>
-  </si>
-  <si>
     <t>0.290</t>
-  </si>
-  <si>
-    <t>0.260</t>
-  </si>
-  <si>
-    <t>0.270</t>
   </si>
   <si>
     <t>-</t>
@@ -485,7 +440,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,611 +477,292 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2">
-        <v>1578268800</v>
+        <v>1579564800</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I2">
-        <v>158500</v>
+        <v>21</v>
+      </c>
+      <c r="I2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3">
-        <v>1578355200</v>
+        <v>1579651200</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="F3" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G3" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="I3" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4">
-        <v>1578441600</v>
+        <v>1579737600</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="F4" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G4" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="H4" t="s">
-        <v>36</v>
-      </c>
-      <c r="I4">
-        <v>17000</v>
+        <v>21</v>
+      </c>
+      <c r="I4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5">
-        <v>1578528000</v>
+        <v>1579824000</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="F5" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G5" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="H5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I5">
-        <v>10000</v>
+        <v>21</v>
+      </c>
+      <c r="I5" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6">
-        <v>1578614400</v>
+        <v>1580169600</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G6" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="H6" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="I6" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7">
-        <v>1578873600</v>
+        <v>1580256000</v>
       </c>
       <c r="B7" t="s">
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="F7" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="G7" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="H7" t="s">
-        <v>34</v>
-      </c>
-      <c r="I7">
-        <v>10000</v>
+        <v>21</v>
+      </c>
+      <c r="I7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8">
-        <v>1578960000</v>
+        <v>1580342400</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="E8" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="F8" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="G8" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="H8" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="I8" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9">
-        <v>1579046400</v>
+        <v>1580688000</v>
       </c>
       <c r="B9" t="s">
         <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="E9" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="F9" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="G9" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="H9" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="I9" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10">
-        <v>1579132800</v>
+        <v>1580774400</v>
       </c>
       <c r="B10" t="s">
         <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="E10" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="F10" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="G10" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="H10" t="s">
-        <v>34</v>
-      </c>
-      <c r="I10">
-        <v>10000</v>
+        <v>21</v>
+      </c>
+      <c r="I10" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11">
-        <v>1579219200</v>
+        <v>1580860800</v>
       </c>
       <c r="B11" t="s">
         <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="E11" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="F11" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="G11" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="H11" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="I11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12">
-        <v>1579478400</v>
-      </c>
-      <c r="B12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" t="s">
-        <v>34</v>
-      </c>
-      <c r="G12" t="s">
-        <v>34</v>
-      </c>
-      <c r="H12" t="s">
-        <v>34</v>
-      </c>
-      <c r="I12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13">
-        <v>1579564800</v>
-      </c>
-      <c r="B13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F13" t="s">
-        <v>34</v>
-      </c>
-      <c r="G13" t="s">
-        <v>34</v>
-      </c>
-      <c r="H13" t="s">
-        <v>34</v>
-      </c>
-      <c r="I13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14">
-        <v>1579651200</v>
-      </c>
-      <c r="B14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14" t="s">
-        <v>34</v>
-      </c>
-      <c r="F14" t="s">
-        <v>34</v>
-      </c>
-      <c r="G14" t="s">
-        <v>34</v>
-      </c>
-      <c r="H14" t="s">
-        <v>34</v>
-      </c>
-      <c r="I14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15">
-        <v>1579737600</v>
-      </c>
-      <c r="B15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F15" t="s">
-        <v>34</v>
-      </c>
-      <c r="G15" t="s">
-        <v>34</v>
-      </c>
-      <c r="H15" t="s">
-        <v>34</v>
-      </c>
-      <c r="I15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16">
-        <v>1579824000</v>
-      </c>
-      <c r="B16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16" t="s">
-        <v>34</v>
-      </c>
-      <c r="F16" t="s">
-        <v>34</v>
-      </c>
-      <c r="G16" t="s">
-        <v>34</v>
-      </c>
-      <c r="H16" t="s">
-        <v>34</v>
-      </c>
-      <c r="I16" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17">
-        <v>1580169600</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E17" t="s">
-        <v>34</v>
-      </c>
-      <c r="F17" t="s">
-        <v>34</v>
-      </c>
-      <c r="G17" t="s">
-        <v>34</v>
-      </c>
-      <c r="H17" t="s">
-        <v>34</v>
-      </c>
-      <c r="I17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18">
-        <v>1580256000</v>
-      </c>
-      <c r="B18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" t="s">
-        <v>31</v>
-      </c>
-      <c r="E18" t="s">
-        <v>34</v>
-      </c>
-      <c r="F18" t="s">
-        <v>34</v>
-      </c>
-      <c r="G18" t="s">
-        <v>34</v>
-      </c>
-      <c r="H18" t="s">
-        <v>34</v>
-      </c>
-      <c r="I18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19">
-        <v>1580342400</v>
-      </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" t="s">
-        <v>31</v>
-      </c>
-      <c r="E19" t="s">
-        <v>34</v>
-      </c>
-      <c r="F19" t="s">
-        <v>34</v>
-      </c>
-      <c r="G19" t="s">
-        <v>34</v>
-      </c>
-      <c r="H19" t="s">
-        <v>34</v>
-      </c>
-      <c r="I19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20">
-        <v>1580688000</v>
-      </c>
-      <c r="B20" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" t="s">
-        <v>30</v>
-      </c>
-      <c r="D20" t="s">
-        <v>31</v>
-      </c>
-      <c r="E20" t="s">
-        <v>34</v>
-      </c>
-      <c r="F20" t="s">
-        <v>34</v>
-      </c>
-      <c r="G20" t="s">
-        <v>34</v>
-      </c>
-      <c r="H20" t="s">
-        <v>34</v>
-      </c>
-      <c r="I20" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21">
-        <v>1580774400</v>
-      </c>
-      <c r="B21" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" t="s">
-        <v>30</v>
-      </c>
-      <c r="D21" t="s">
-        <v>31</v>
-      </c>
-      <c r="E21" t="s">
-        <v>34</v>
-      </c>
-      <c r="F21" t="s">
-        <v>34</v>
-      </c>
-      <c r="G21" t="s">
-        <v>34</v>
-      </c>
-      <c r="H21" t="s">
-        <v>34</v>
-      </c>
-      <c r="I21" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22">
-        <v>1580860800</v>
-      </c>
-      <c r="B22" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" t="s">
-        <v>30</v>
-      </c>
-      <c r="D22" t="s">
-        <v>31</v>
-      </c>
-      <c r="E22" t="s">
-        <v>34</v>
-      </c>
-      <c r="F22" t="s">
-        <v>34</v>
-      </c>
-      <c r="G22" t="s">
-        <v>34</v>
-      </c>
-      <c r="H22" t="s">
-        <v>34</v>
-      </c>
-      <c r="I22" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
